--- a/raw_data/insertionSort/insertionSort.xlsx
+++ b/raw_data/insertionSort/insertionSort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keegan/Documents/School/HBO_ICT/Jaar_2/Datastructures/Practicum_opdrachten/Assignment_2/Datastructures_assignment_2/raw_data/insertionSort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA60198-B77D-5E44-B38B-0B61408C0CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A54D1E5-46FA-2C4A-AD52-05B20C84AD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="13200" windowHeight="14720" xr2:uid="{0AAFBCEB-FBDD-5349-8E52-5BE650A0682D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="list_size_with_csv" localSheetId="0">Sheet1!$A$1:$FO$1</definedName>
-    <definedName name="running_seconds_with_csv" localSheetId="0">Sheet1!$A$2:$FO$2</definedName>
+    <definedName name="running_seconds_with_csv" localSheetId="0">Sheet1!$C$2:$FO$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{7EA98030-B894-6843-9BCB-0706C37FD834}" name="list_size_with_csv" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Keegan/Documents/School/HBO_ICT/Jaar_2/Datastructures/Practicum_opdrachten/Assignment_2/Datastructures_assignment_2/raw_data/insertionSort/list_size_with_csv.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/Keegan/Documents/School/HBO_ICT/Jaar_2/Datastructures/Practicum_opdrachten/Assignment_2/Datastructures_assignment_2/raw_data/insertionSort/list_size_with_csv.csv" decimal="," thousands="." semicolon="1">
       <textFields count="171">
         <textField/>
         <textField/>
@@ -208,7 +208,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{94C444D8-6CFA-B64B-9DA9-59AAB75E7EC7}" name="running_seconds_with_csv" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/Keegan/Documents/School/HBO_ICT/Jaar_2/Datastructures/Practicum_opdrachten/Assignment_2/Datastructures_assignment_2/raw_data/insertionSort/running_seconds_with_csv.csv" decimal="," thousands="." semicolon="1">
+    <textPr sourceFile="/Users/Keegan/Documents/School/HBO_ICT/Jaar_2/Datastructures/Practicum_opdrachten/Assignment_2/Datastructures_assignment_2/raw_data/insertionSort/running_seconds_with_csv.csv" decimal="," thousands="." semicolon="1">
       <textFields count="171">
         <textField/>
         <textField/>
@@ -449,11 +449,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="running_seconds_with_csv" connectionId="2" xr16:uid="{BCC42BA8-6EA0-9C41-A0B2-F78BF8CBA861}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="list_size_with_csv" connectionId="1" xr16:uid="{2FD9FCF5-F902-0F44-B7C8-60D1B27583E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="list_size_with_csv" connectionId="1" xr16:uid="{2FD9FCF5-F902-0F44-B7C8-60D1B27583E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="running_seconds_with_csv" connectionId="2" xr16:uid="{BCC42BA8-6EA0-9C41-A0B2-F78BF8CBA861}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86690D71-053B-5A4E-B350-FFA7796BAC4D}">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,12 +783,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>39370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>36790</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4">
-        <v>39370</v>
+        <v>27132</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -796,7 +812,7 @@
         <v>100</v>
       </c>
       <c r="B5">
-        <v>36790</v>
+        <v>42208</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -804,7 +820,7 @@
         <v>100</v>
       </c>
       <c r="B6">
-        <v>27132</v>
+        <v>62877</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -812,7 +828,7 @@
         <v>100</v>
       </c>
       <c r="B7">
-        <v>42208</v>
+        <v>90113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -820,7 +836,7 @@
         <v>100</v>
       </c>
       <c r="B8">
-        <v>62877</v>
+        <v>123619</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -828,7 +844,7 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>90113</v>
+        <v>159482</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -836,7 +852,7 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>123619</v>
+        <v>200890</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -844,23 +860,23 @@
         <v>100</v>
       </c>
       <c r="B11">
-        <v>159482</v>
+        <v>261793</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B12">
-        <v>200890</v>
+        <v>337458</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B13">
-        <v>261793</v>
+        <v>381444</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -868,7 +884,7 @@
         <v>200</v>
       </c>
       <c r="B14">
-        <v>337458</v>
+        <v>934874</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -876,7 +892,7 @@
         <v>200</v>
       </c>
       <c r="B15">
-        <v>381444</v>
+        <v>541911</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -884,7 +900,7 @@
         <v>200</v>
       </c>
       <c r="B16">
-        <v>934874</v>
+        <v>627374</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -892,7 +908,7 @@
         <v>200</v>
       </c>
       <c r="B17">
-        <v>541911</v>
+        <v>701461</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -900,7 +916,7 @@
         <v>200</v>
       </c>
       <c r="B18">
-        <v>627374</v>
+        <v>773248</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -908,7 +924,7 @@
         <v>200</v>
       </c>
       <c r="B19">
-        <v>701461</v>
+        <v>876482</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -916,7 +932,7 @@
         <v>200</v>
       </c>
       <c r="B20">
-        <v>773248</v>
+        <v>1021620</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -924,23 +940,23 @@
         <v>200</v>
       </c>
       <c r="B21">
-        <v>876482</v>
+        <v>1043571</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B22">
-        <v>1021620</v>
+        <v>1181560</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B23">
-        <v>1043571</v>
+        <v>2219985</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -948,7 +964,7 @@
         <v>400</v>
       </c>
       <c r="B24">
-        <v>1181560</v>
+        <v>1540331</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -956,7 +972,7 @@
         <v>400</v>
       </c>
       <c r="B25">
-        <v>2219985</v>
+        <v>1514172</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -964,7 +980,7 @@
         <v>400</v>
       </c>
       <c r="B26">
-        <v>1540331</v>
+        <v>1524692</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -972,7 +988,7 @@
         <v>400</v>
       </c>
       <c r="B27">
-        <v>1514172</v>
+        <v>2260133</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -980,7 +996,7 @@
         <v>400</v>
       </c>
       <c r="B28">
-        <v>1524692</v>
+        <v>2497998</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -988,7 +1004,7 @@
         <v>400</v>
       </c>
       <c r="B29">
-        <v>2260133</v>
+        <v>2043478</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +1012,7 @@
         <v>400</v>
       </c>
       <c r="B30">
-        <v>2497998</v>
+        <v>2154803</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,23 +1020,23 @@
         <v>400</v>
       </c>
       <c r="B31">
-        <v>2043478</v>
+        <v>2385230</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="B32">
-        <v>2154803</v>
+        <v>2744455</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="B33">
-        <v>2385230</v>
+        <v>2815514</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +1044,7 @@
         <v>800</v>
       </c>
       <c r="B34">
-        <v>2744455</v>
+        <v>3502863</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1052,7 @@
         <v>800</v>
       </c>
       <c r="B35">
-        <v>2815514</v>
+        <v>3427065</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,7 +1060,7 @@
         <v>800</v>
       </c>
       <c r="B36">
-        <v>3502863</v>
+        <v>3026285</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1052,7 +1068,7 @@
         <v>800</v>
       </c>
       <c r="B37">
-        <v>3427065</v>
+        <v>3165783</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1060,7 +1076,7 @@
         <v>800</v>
       </c>
       <c r="B38">
-        <v>3026285</v>
+        <v>3528439</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,7 +1084,7 @@
         <v>800</v>
       </c>
       <c r="B39">
-        <v>3165783</v>
+        <v>5276998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1076,7 +1092,7 @@
         <v>800</v>
       </c>
       <c r="B40">
-        <v>3528439</v>
+        <v>4405560</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1084,23 +1100,23 @@
         <v>800</v>
       </c>
       <c r="B41">
-        <v>5276998</v>
+        <v>3801474</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="B42">
-        <v>4405560</v>
+        <v>4323239</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="B43">
-        <v>3801474</v>
+        <v>4488792</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1108,7 +1124,7 @@
         <v>1600</v>
       </c>
       <c r="B44">
-        <v>4323239</v>
+        <v>5781360</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,7 +1132,7 @@
         <v>1600</v>
       </c>
       <c r="B45">
-        <v>4488792</v>
+        <v>5735277</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1124,7 +1140,7 @@
         <v>1600</v>
       </c>
       <c r="B46">
-        <v>5781360</v>
+        <v>9488033</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1132,7 +1148,7 @@
         <v>1600</v>
       </c>
       <c r="B47">
-        <v>5735277</v>
+        <v>8512905</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1140,7 +1156,7 @@
         <v>1600</v>
       </c>
       <c r="B48">
-        <v>9488033</v>
+        <v>15400782</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1148,7 +1164,7 @@
         <v>1600</v>
       </c>
       <c r="B49">
-        <v>8512905</v>
+        <v>8650516</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1156,7 +1172,7 @@
         <v>1600</v>
       </c>
       <c r="B50">
-        <v>15400782</v>
+        <v>9763517</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1164,23 +1180,23 @@
         <v>1600</v>
       </c>
       <c r="B51">
-        <v>8650516</v>
+        <v>8290248</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="B52">
-        <v>9763517</v>
+        <v>8760201</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="B53">
-        <v>8290248</v>
+        <v>8976742</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1188,7 +1204,7 @@
         <v>3200</v>
       </c>
       <c r="B54">
-        <v>8760201</v>
+        <v>8193592</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1196,7 +1212,7 @@
         <v>3200</v>
       </c>
       <c r="B55">
-        <v>8976742</v>
+        <v>12286780</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1204,7 +1220,7 @@
         <v>3200</v>
       </c>
       <c r="B56">
-        <v>8193592</v>
+        <v>10249075</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1212,7 +1228,7 @@
         <v>3200</v>
       </c>
       <c r="B57">
-        <v>12286780</v>
+        <v>14857894</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1220,7 +1236,7 @@
         <v>3200</v>
       </c>
       <c r="B58">
-        <v>10249075</v>
+        <v>10651328</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1228,7 +1244,7 @@
         <v>3200</v>
       </c>
       <c r="B59">
-        <v>14857894</v>
+        <v>28877883</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1236,7 +1252,7 @@
         <v>3200</v>
       </c>
       <c r="B60">
-        <v>10651328</v>
+        <v>12951668</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1244,23 +1260,23 @@
         <v>3200</v>
       </c>
       <c r="B61">
-        <v>28877883</v>
+        <v>10028417</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="B62">
-        <v>12951668</v>
+        <v>10256810</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="B63">
-        <v>10028417</v>
+        <v>10396700</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1268,7 +1284,7 @@
         <v>6400</v>
       </c>
       <c r="B64">
-        <v>10256810</v>
+        <v>13093371</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1276,7 +1292,7 @@
         <v>6400</v>
       </c>
       <c r="B65">
-        <v>10396700</v>
+        <v>12448926</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,7 +1300,7 @@
         <v>6400</v>
       </c>
       <c r="B66">
-        <v>13093371</v>
+        <v>11447765</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1292,7 +1308,7 @@
         <v>6400</v>
       </c>
       <c r="B67">
-        <v>12448926</v>
+        <v>12141072</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1300,7 +1316,7 @@
         <v>6400</v>
       </c>
       <c r="B68">
-        <v>11447765</v>
+        <v>16142079</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1308,7 +1324,7 @@
         <v>6400</v>
       </c>
       <c r="B69">
-        <v>12141072</v>
+        <v>11762945</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1316,7 +1332,7 @@
         <v>6400</v>
       </c>
       <c r="B70">
-        <v>16142079</v>
+        <v>11866383</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1324,23 +1340,23 @@
         <v>6400</v>
       </c>
       <c r="B71">
-        <v>11762945</v>
+        <v>12426959</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="B72">
-        <v>11866383</v>
+        <v>13766417</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="B73">
-        <v>12426959</v>
+        <v>16248949</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1348,7 +1364,7 @@
         <v>12800</v>
       </c>
       <c r="B74">
-        <v>13766417</v>
+        <v>23669399</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1356,7 +1372,7 @@
         <v>12800</v>
       </c>
       <c r="B75">
-        <v>16248949</v>
+        <v>25100521</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1364,7 +1380,7 @@
         <v>12800</v>
       </c>
       <c r="B76">
-        <v>23669399</v>
+        <v>14207426</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1372,7 +1388,7 @@
         <v>12800</v>
       </c>
       <c r="B77">
-        <v>25100521</v>
+        <v>16402317</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1380,7 +1396,7 @@
         <v>12800</v>
       </c>
       <c r="B78">
-        <v>14207426</v>
+        <v>15686809</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1388,7 +1404,7 @@
         <v>12800</v>
       </c>
       <c r="B79">
-        <v>16402317</v>
+        <v>18971809</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1396,7 +1412,7 @@
         <v>12800</v>
       </c>
       <c r="B80">
-        <v>15686809</v>
+        <v>15633464</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1404,23 +1420,23 @@
         <v>12800</v>
       </c>
       <c r="B81">
-        <v>18971809</v>
+        <v>18319510</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>12800</v>
+        <v>25600</v>
       </c>
       <c r="B82">
-        <v>15633464</v>
+        <v>16646635</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>12800</v>
+        <v>25600</v>
       </c>
       <c r="B83">
-        <v>18319510</v>
+        <v>19046375</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,7 +1444,7 @@
         <v>25600</v>
       </c>
       <c r="B84">
-        <v>16646635</v>
+        <v>17609676</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,7 +1452,7 @@
         <v>25600</v>
       </c>
       <c r="B85">
-        <v>19046375</v>
+        <v>17794950</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1444,7 +1460,7 @@
         <v>25600</v>
       </c>
       <c r="B86">
-        <v>17609676</v>
+        <v>17999876</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1452,7 +1468,7 @@
         <v>25600</v>
       </c>
       <c r="B87">
-        <v>17794950</v>
+        <v>23330510</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1460,7 +1476,7 @@
         <v>25600</v>
       </c>
       <c r="B88">
-        <v>17999876</v>
+        <v>20581943</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1468,7 +1484,7 @@
         <v>25600</v>
       </c>
       <c r="B89">
-        <v>23330510</v>
+        <v>22230494</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1476,7 +1492,7 @@
         <v>25600</v>
       </c>
       <c r="B90">
-        <v>20581943</v>
+        <v>27728356</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1484,23 +1500,23 @@
         <v>25600</v>
       </c>
       <c r="B91">
-        <v>22230494</v>
+        <v>20790511</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>25600</v>
+        <v>51200</v>
       </c>
       <c r="B92">
-        <v>27728356</v>
+        <v>19947218</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>25600</v>
+        <v>51200</v>
       </c>
       <c r="B93">
-        <v>20790511</v>
+        <v>23017732</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1508,7 +1524,7 @@
         <v>51200</v>
       </c>
       <c r="B94">
-        <v>19947218</v>
+        <v>22730905</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1516,7 +1532,7 @@
         <v>51200</v>
       </c>
       <c r="B95">
-        <v>23017732</v>
+        <v>21466183</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1524,7 +1540,7 @@
         <v>51200</v>
       </c>
       <c r="B96">
-        <v>22730905</v>
+        <v>22847987</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1532,7 +1548,7 @@
         <v>51200</v>
       </c>
       <c r="B97">
-        <v>21466183</v>
+        <v>23881389</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1540,7 +1556,7 @@
         <v>51200</v>
       </c>
       <c r="B98">
-        <v>22847987</v>
+        <v>27858281</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1548,7 +1564,7 @@
         <v>51200</v>
       </c>
       <c r="B99">
-        <v>23881389</v>
+        <v>23377178</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1556,7 +1572,7 @@
         <v>51200</v>
       </c>
       <c r="B100">
-        <v>27858281</v>
+        <v>29251754</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1564,23 +1580,23 @@
         <v>51200</v>
       </c>
       <c r="B101">
-        <v>23377178</v>
+        <v>33492840</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>51200</v>
+        <v>102400</v>
       </c>
       <c r="B102">
-        <v>29251754</v>
+        <v>29643102</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>51200</v>
+        <v>102400</v>
       </c>
       <c r="B103">
-        <v>33492840</v>
+        <v>32106370</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1588,7 +1604,7 @@
         <v>102400</v>
       </c>
       <c r="B104">
-        <v>29643102</v>
+        <v>30381630</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1596,7 +1612,7 @@
         <v>102400</v>
       </c>
       <c r="B105">
-        <v>32106370</v>
+        <v>35825864</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1604,7 +1620,7 @@
         <v>102400</v>
       </c>
       <c r="B106">
-        <v>30381630</v>
+        <v>27916138</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1612,7 +1628,7 @@
         <v>102400</v>
       </c>
       <c r="B107">
-        <v>35825864</v>
+        <v>28583577</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1620,7 +1636,7 @@
         <v>102400</v>
       </c>
       <c r="B108">
-        <v>27916138</v>
+        <v>34257264</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1628,7 +1644,7 @@
         <v>102400</v>
       </c>
       <c r="B109">
-        <v>28583577</v>
+        <v>28895942</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1636,7 +1652,7 @@
         <v>102400</v>
       </c>
       <c r="B110">
-        <v>34257264</v>
+        <v>29290119</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1644,23 +1660,23 @@
         <v>102400</v>
       </c>
       <c r="B111">
-        <v>28895942</v>
+        <v>30415070</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>102400</v>
+        <v>204800</v>
       </c>
       <c r="B112">
-        <v>29290119</v>
+        <v>31596781</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>102400</v>
+        <v>204800</v>
       </c>
       <c r="B113">
-        <v>30415070</v>
+        <v>34440013</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1668,7 +1684,7 @@
         <v>204800</v>
       </c>
       <c r="B114">
-        <v>31596781</v>
+        <v>32024928</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1676,7 +1692,7 @@
         <v>204800</v>
       </c>
       <c r="B115">
-        <v>34440013</v>
+        <v>31954919</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1684,7 +1700,7 @@
         <v>204800</v>
       </c>
       <c r="B116">
-        <v>32024928</v>
+        <v>32866042</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1692,7 +1708,7 @@
         <v>204800</v>
       </c>
       <c r="B117">
-        <v>31954919</v>
+        <v>34746208</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1700,7 +1716,7 @@
         <v>204800</v>
       </c>
       <c r="B118">
-        <v>32866042</v>
+        <v>33801145</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1708,7 +1724,7 @@
         <v>204800</v>
       </c>
       <c r="B119">
-        <v>34746208</v>
+        <v>34064973</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1716,7 +1732,7 @@
         <v>204800</v>
       </c>
       <c r="B120">
-        <v>33801145</v>
+        <v>37027027</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1724,23 +1740,23 @@
         <v>204800</v>
       </c>
       <c r="B121">
-        <v>34064973</v>
+        <v>37217129</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>204800</v>
+        <v>409600</v>
       </c>
       <c r="B122">
-        <v>37027027</v>
+        <v>36992254</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>204800</v>
+        <v>409600</v>
       </c>
       <c r="B123">
-        <v>37217129</v>
+        <v>40837390</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1748,7 +1764,7 @@
         <v>409600</v>
       </c>
       <c r="B124">
-        <v>36992254</v>
+        <v>37926666</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1756,7 +1772,7 @@
         <v>409600</v>
       </c>
       <c r="B125">
-        <v>40837390</v>
+        <v>42009179</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1764,7 +1780,7 @@
         <v>409600</v>
       </c>
       <c r="B126">
-        <v>37926666</v>
+        <v>40435418</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1772,7 +1788,7 @@
         <v>409600</v>
       </c>
       <c r="B127">
-        <v>42009179</v>
+        <v>37816866</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1780,7 +1796,7 @@
         <v>409600</v>
       </c>
       <c r="B128">
-        <v>40435418</v>
+        <v>40805825</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1788,7 +1804,7 @@
         <v>409600</v>
       </c>
       <c r="B129">
-        <v>37816866</v>
+        <v>43220642</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1796,7 +1812,7 @@
         <v>409600</v>
       </c>
       <c r="B130">
-        <v>40805825</v>
+        <v>43911265</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1804,23 +1820,23 @@
         <v>409600</v>
       </c>
       <c r="B131">
-        <v>43220642</v>
+        <v>45365608</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>409600</v>
+        <v>819200</v>
       </c>
       <c r="B132">
-        <v>43911265</v>
+        <v>42512097</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>409600</v>
+        <v>819200</v>
       </c>
       <c r="B133">
-        <v>45365608</v>
+        <v>43677172</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1828,7 +1844,7 @@
         <v>819200</v>
       </c>
       <c r="B134">
-        <v>42512097</v>
+        <v>44633134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1836,7 +1852,7 @@
         <v>819200</v>
       </c>
       <c r="B135">
-        <v>43677172</v>
+        <v>55006519</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1844,7 +1860,7 @@
         <v>819200</v>
       </c>
       <c r="B136">
-        <v>44633134</v>
+        <v>46161684</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1852,7 +1868,7 @@
         <v>819200</v>
       </c>
       <c r="B137">
-        <v>55006519</v>
+        <v>49289940</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1860,7 +1876,7 @@
         <v>819200</v>
       </c>
       <c r="B138">
-        <v>46161684</v>
+        <v>48520809</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -1868,7 +1884,7 @@
         <v>819200</v>
       </c>
       <c r="B139">
-        <v>49289940</v>
+        <v>49948347</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -1876,7 +1892,7 @@
         <v>819200</v>
       </c>
       <c r="B140">
-        <v>48520809</v>
+        <v>50184363</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -1884,23 +1900,23 @@
         <v>819200</v>
       </c>
       <c r="B141">
-        <v>49948347</v>
+        <v>49774882</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>819200</v>
+        <v>1638400</v>
       </c>
       <c r="B142">
-        <v>50184363</v>
+        <v>51995034</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>819200</v>
+        <v>1638400</v>
       </c>
       <c r="B143">
-        <v>49774882</v>
+        <v>50635587</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -1908,7 +1924,7 @@
         <v>1638400</v>
       </c>
       <c r="B144">
-        <v>51995034</v>
+        <v>56273893</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -1916,7 +1932,7 @@
         <v>1638400</v>
       </c>
       <c r="B145">
-        <v>50635587</v>
+        <v>55102791</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -1924,7 +1940,7 @@
         <v>1638400</v>
       </c>
       <c r="B146">
-        <v>56273893</v>
+        <v>55929332</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -1932,7 +1948,7 @@
         <v>1638400</v>
       </c>
       <c r="B147">
-        <v>55102791</v>
+        <v>54401107</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -1940,7 +1956,7 @@
         <v>1638400</v>
       </c>
       <c r="B148">
-        <v>55929332</v>
+        <v>61554114</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -1948,7 +1964,7 @@
         <v>1638400</v>
       </c>
       <c r="B149">
-        <v>54401107</v>
+        <v>60512774</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -1956,7 +1972,7 @@
         <v>1638400</v>
       </c>
       <c r="B150">
-        <v>61554114</v>
+        <v>59928122</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -1964,23 +1980,23 @@
         <v>1638400</v>
       </c>
       <c r="B151">
-        <v>60512774</v>
+        <v>58157387</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>1638400</v>
+        <v>3276800</v>
       </c>
       <c r="B152">
-        <v>59928122</v>
+        <v>58336812</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>1638400</v>
+        <v>3276800</v>
       </c>
       <c r="B153">
-        <v>58157387</v>
+        <v>60181792</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -1988,7 +2004,7 @@
         <v>3276800</v>
       </c>
       <c r="B154">
-        <v>58336812</v>
+        <v>62078667</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -1996,7 +2012,7 @@
         <v>3276800</v>
       </c>
       <c r="B155">
-        <v>60181792</v>
+        <v>60283422</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2004,7 +2020,7 @@
         <v>3276800</v>
       </c>
       <c r="B156">
-        <v>62078667</v>
+        <v>61677775</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2012,7 +2028,7 @@
         <v>3276800</v>
       </c>
       <c r="B157">
-        <v>60283422</v>
+        <v>61205396</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2020,7 +2036,7 @@
         <v>3276800</v>
       </c>
       <c r="B158">
-        <v>61677775</v>
+        <v>68895356</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2028,7 +2044,7 @@
         <v>3276800</v>
       </c>
       <c r="B159">
-        <v>61205396</v>
+        <v>66282782</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2036,7 +2052,7 @@
         <v>3276800</v>
       </c>
       <c r="B160">
-        <v>68895356</v>
+        <v>66385019</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2044,23 +2060,23 @@
         <v>3276800</v>
       </c>
       <c r="B161">
-        <v>66282782</v>
+        <v>72784977</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>3276800</v>
+        <v>6553600</v>
       </c>
       <c r="B162">
-        <v>66385019</v>
+        <v>70089556</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>3276800</v>
+        <v>6553600</v>
       </c>
       <c r="B163">
-        <v>72784977</v>
+        <v>89107748</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2068,7 +2084,7 @@
         <v>6553600</v>
       </c>
       <c r="B164">
-        <v>70089556</v>
+        <v>68820607</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2076,7 +2092,7 @@
         <v>6553600</v>
       </c>
       <c r="B165">
-        <v>89107748</v>
+        <v>71510764</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2084,7 +2100,7 @@
         <v>6553600</v>
       </c>
       <c r="B166">
-        <v>68820607</v>
+        <v>71585441</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2092,7 +2108,7 @@
         <v>6553600</v>
       </c>
       <c r="B167">
-        <v>71510764</v>
+        <v>232099762</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2100,7 +2116,7 @@
         <v>6553600</v>
       </c>
       <c r="B168">
-        <v>71585441</v>
+        <v>87873129</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2108,7 +2124,7 @@
         <v>6553600</v>
       </c>
       <c r="B169">
-        <v>232099762</v>
+        <v>139086528</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2116,7 +2132,7 @@
         <v>6553600</v>
       </c>
       <c r="B170">
-        <v>87873129</v>
+        <v>80789466</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2124,22 +2140,6 @@
         <v>6553600</v>
       </c>
       <c r="B171">
-        <v>139086528</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>6553600</v>
-      </c>
-      <c r="B172">
-        <v>80789466</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>6553600</v>
-      </c>
-      <c r="B173">
         <v>79802410</v>
       </c>
     </row>

--- a/raw_data/insertionSort/insertionSort.xlsx
+++ b/raw_data/insertionSort/insertionSort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keegan/Documents/School/HBO_ICT/Jaar_2/Datastructures/Practicum_opdrachten/Assignment_2/Datastructures_assignment_2/raw_data/insertionSort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A54D1E5-46FA-2C4A-AD52-05B20C84AD9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A54DD81-F7B7-1D42-A38F-A2FB90F0D554}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="13200" windowHeight="14720" xr2:uid="{0AAFBCEB-FBDD-5349-8E52-5BE650A0682D}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="list_size_with_csv" localSheetId="0">Sheet1!$A$1:$FO$1</definedName>
     <definedName name="running_seconds_with_csv" localSheetId="0">Sheet1!$C$2:$FO$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -449,11 +449,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="list_size_with_csv" connectionId="1" xr16:uid="{2FD9FCF5-F902-0F44-B7C8-60D1B27583E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="running_seconds_with_csv" connectionId="2" xr16:uid="{BCC42BA8-6EA0-9C41-A0B2-F78BF8CBA861}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="running_seconds_with_csv" connectionId="2" xr16:uid="{BCC42BA8-6EA0-9C41-A0B2-F78BF8CBA861}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="list_size_with_csv" connectionId="1" xr16:uid="{2FD9FCF5-F902-0F44-B7C8-60D1B27583E6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,17 +753,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86690D71-053B-5A4E-B350-FFA7796BAC4D}">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="46" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -2055,7 +2057,7 @@
         <v>66385019</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3276800</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>72784977</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>6553600</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>70089556</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>6553600</v>
       </c>
@@ -2079,7 +2081,7 @@
         <v>89107748</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>6553600</v>
       </c>
@@ -2087,7 +2089,7 @@
         <v>68820607</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>6553600</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>71510764</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6553600</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>71585441</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>6553600</v>
       </c>
@@ -2111,7 +2113,7 @@
         <v>232099762</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>6553600</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>87873129</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>6553600</v>
       </c>
@@ -2127,7 +2129,7 @@
         <v>139086528</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>6553600</v>
       </c>
@@ -2135,12 +2137,15 @@
         <v>80789466</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>6553600</v>
       </c>
       <c r="B171">
         <v>79802410</v>
+      </c>
+      <c r="C171">
+        <v>1357346</v>
       </c>
     </row>
   </sheetData>
